--- a/vector/product check - Vincent - 2020-06-15.xlsx
+++ b/vector/product check - Vincent - 2020-06-15.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
   <si>
     <t>Han</t>
   </si>
@@ -412,6 +412,51 @@
   </si>
   <si>
     <t>source not italicized, 25ug and 100ug have the same formulation (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, aliases different from old website, 10ug and 100ug have the same formulation (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, 20ug and 1.0mg have the same description (I don’t know if they meat to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, 100ug and 50 ug have the same description (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, 10ug and 100ug have the same formulation (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, the Bioactivity is called "Function" on new website, although the content is consistent with the old website</t>
+  </si>
+  <si>
+    <t>source not italicized, all three Endotoxin levels are the same(there's no item called biotoxin level), 10ug and 1.0mg storage are the same (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>I don’t know if 1.0mg means 10x100ug, source not italicized</t>
+  </si>
+  <si>
+    <t>source not italicized, all three formulations are the same (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>souce not italicized, 1.0 mg description is different from the other two sizes (thus different from old website)</t>
+  </si>
+  <si>
+    <t>source not italicized, Bioactivity is called "Function" on new website</t>
+  </si>
+  <si>
+    <t>100ug still missing, source not italicized, 1.0mg description different from old website, Bioactivity is called "Function" on new website, Bioactivity for all three sizes are different from old website, 1.0mg formulation is different from old website, 10ug and 50ug have the same description (I dont know if they meant to be the same), all three sizes have the  same Bioactivity (or Function on new website)(but still different from old website as mentioned before)</t>
+  </si>
+  <si>
+    <t>missing drop down list</t>
+  </si>
+  <si>
+    <t>source not italicized, 250ug description has an extra "-" between "FGF" and "21"(not big problem)</t>
+  </si>
+  <si>
+    <t>not searchable, no such sku in database</t>
+  </si>
+  <si>
+    <t>source different from old website, only 50ug has the same description as old website, 50ug and 500ug have the same alias (I don’t know if they meat to be the same)</t>
   </si>
 </sst>
 </file>
@@ -446,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -515,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
@@ -1294,8 +1348,11 @@
         <v>0</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1303,8 +1360,11 @@
         <v>0</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1312,8 +1372,11 @@
         <v>0</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1321,8 +1384,11 @@
         <v>0</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1330,8 +1396,11 @@
         <v>0</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1339,8 +1408,11 @@
         <v>0</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1348,8 +1420,11 @@
         <v>0</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" thickBot="1">
@@ -1357,119 +1432,158 @@
         <v>0</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>

--- a/vector/product check - Vincent - 2020-06-15.xlsx
+++ b/vector/product check - Vincent - 2020-06-15.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenzhengong/Desktop/newpages/vector/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888772A3-22D6-8C4A-B62E-FDDF8A4E3FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
   <si>
     <t>Han</t>
   </si>
@@ -457,13 +463,31 @@
   </si>
   <si>
     <t>source different from old website, only 50ug has the same description as old website, 50ug and 500ug have the same alias (I don’t know if they meat to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, all three sizes have the same description (I don’t know if they meant to be the same)</t>
+  </si>
+  <si>
+    <t>source not italicized, 1.0mg description different from old website</t>
+  </si>
+  <si>
+    <t>source not italicized, new website has "Function" instead of Bioactivity</t>
+  </si>
+  <si>
+    <t>source not italicized, 1.0mg and 100ug have typo in their description, all three sizes have typo in their "Function"(which is called Bioactivity on old website),  1.0mg and 100ug have typo in their formulation, 1.0mg and 100ug have typo in their reconstitution</t>
+  </si>
+  <si>
+    <t>on old website there are prices and they are consistent with new website(I think theres no problem with prices), source not italicized, only 20ug description is consistent with old website</t>
+  </si>
+  <si>
+    <t>on new website there is 25ug instead of 10ug, source not italicized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,28 +866,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="179.7109375" customWidth="1"/>
-    <col min="4" max="4" width="105.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="179.6640625" customWidth="1"/>
+    <col min="4" max="4" width="105.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +899,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +947,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1127,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1235,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1319,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="39" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1379,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="48" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1463,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1523,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,187 +1607,247 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1">
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1">
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1">
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="82" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="83" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="84" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="85" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="86" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="87" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="88" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="89" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="90" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="91" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="92" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="93" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1964,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="94" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="95" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1982,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="96" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="97" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +2000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="98" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="99" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +2018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="100" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +2027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="101" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +2036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="102" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="103" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +2054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="104" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +2063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="105" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="106" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="107" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="108" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2099,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="109" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2108,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="110" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="111" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="112" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="113" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="114" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="115" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>

--- a/vector/product check - Vincent - 2020-06-15.xlsx
+++ b/vector/product check - Vincent - 2020-06-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenzhengong/Desktop/newpages/vector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888772A3-22D6-8C4A-B62E-FDDF8A4E3FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3512B-E4A7-554B-B9DA-27AF09B1A06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
   <si>
     <t>Han</t>
   </si>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1847,16 +1847,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>

--- a/vector/product check - Vincent - 2020-06-15.xlsx
+++ b/vector/product check - Vincent - 2020-06-15.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenzhengong/Desktop/newpages/vector/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3512B-E4A7-554B-B9DA-27AF09B1A06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="166">
   <si>
     <t>Han</t>
   </si>
@@ -481,13 +475,55 @@
   </si>
   <si>
     <t>on new website there is 25ug instead of 10ug, source not italicized</t>
+  </si>
+  <si>
+    <t>source not italicized, 1.0mg storage different from old webstie, 1.0mg storage different from 50ug (I don’t know if they meant to be different)</t>
+  </si>
+  <si>
+    <t>source not italicized, 100ug and 1.0mg have the different reconstitution from the old website</t>
+  </si>
+  <si>
+    <t>source not italicized, 1.0mg description different from old website, 1.0mg description different from the other two sizes</t>
+  </si>
+  <si>
+    <t>source not italicized, bioactivity is called "Function" on new website, 1.0mg formulation different from old website, 1.0mg formulation different other two sizes</t>
+  </si>
+  <si>
+    <t>bioativity is called "Function" on new website</t>
+  </si>
+  <si>
+    <t>source not italicized, 500ug and 1.0mg have different formulations, 500ug and 1.0mg have different aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0mg missing, source not italicized, </t>
+  </si>
+  <si>
+    <t>source not ialicized</t>
+  </si>
+  <si>
+    <t>1.0mg missing, source not italicized</t>
+  </si>
+  <si>
+    <t>missing drop down list, no size, souce not italicized, storage not the same as old website, no add to cart</t>
+  </si>
+  <si>
+    <t>souce not italicized</t>
+  </si>
+  <si>
+    <t>source not italicized, 10ug and 1.0mg have different formulations</t>
+  </si>
+  <si>
+    <t>missing drop down list, no size, souce not italicized, bioactivity is called "Function" on new website, bioactivity different from old webstie, storage different from old website, no add to cart</t>
+  </si>
+  <si>
+    <t>source not italicized, 1.0mg has different description from other two sizes, 1.0mg has different formulation from other two sizes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,19 +604,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -866,1000 +896,1000 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="179.6640625" customWidth="1"/>
-    <col min="4" max="4" width="105.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="179.7109375" customWidth="1"/>
+    <col min="4" max="4" width="105.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D55" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D56" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D57" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D60" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D62" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D69" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D72" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D75" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D76" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D77" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D78" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,8 +1897,11 @@
       <c r="C82" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,17 +1909,23 @@
       <c r="C83" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,8 +1933,11 @@
       <c r="C85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,8 +1945,11 @@
       <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,8 +1957,11 @@
       <c r="C87" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,44 +1969,59 @@
       <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,8 +2029,11 @@
       <c r="C93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +2041,11 @@
       <c r="C94" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,8 +2053,11 @@
       <c r="C95" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2065,11 @@
       <c r="C96" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,8 +2077,11 @@
       <c r="C97" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,8 +2089,11 @@
       <c r="C98" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,8 +2101,11 @@
       <c r="C99" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,8 +2113,11 @@
       <c r="C100" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,8 +2125,11 @@
       <c r="C101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,8 +2137,11 @@
       <c r="C102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,8 +2149,11 @@
       <c r="C103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,8 +2161,11 @@
       <c r="C104" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,8 +2173,11 @@
       <c r="C105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,8 +2185,11 @@
       <c r="C106" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,8 +2197,11 @@
       <c r="C107" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -2101,8 +2209,11 @@
       <c r="C108" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,8 +2221,11 @@
       <c r="C109" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -2119,26 +2233,35 @@
       <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,8 +2269,11 @@
       <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,14 +2281,20 @@
       <c r="C114" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="6" t="s">
         <v>114</v>
+      </c>
+      <c r="D115" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
